--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1416FFD1-E6D3-B448-99D7-121690A6A9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9437C8-9929-3343-A87B-BA3BFBCB5F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3720" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -754,7 +754,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -809,13 +815,17 @@
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1150,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1598,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1662,6 +1672,14 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NZL</v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NOR</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1683,6 +1701,14 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AUS</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>IRE</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1704,6 +1730,14 @@
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PHI</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1725,6 +1759,14 @@
       <c r="E5">
         <v>4</v>
       </c>
+      <c r="F5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NGA</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1746,6 +1788,14 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRC</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1767,6 +1817,14 @@
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="F7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ZAM</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JPN</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1788,6 +1846,14 @@
       <c r="E8">
         <v>7</v>
       </c>
+      <c r="F8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HAI</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1809,6 +1875,14 @@
       <c r="E9">
         <v>8</v>
       </c>
+      <c r="F9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>DEN</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CHI</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1830,6 +1904,14 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>VIE</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1851,6 +1933,14 @@
       <c r="E11">
         <v>3</v>
       </c>
+      <c r="F11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1872,6 +1962,14 @@
       <c r="E12">
         <v>2</v>
       </c>
+      <c r="F12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JAM</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1893,6 +1991,14 @@
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="F13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SWE</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SAF</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1914,6 +2020,14 @@
       <c r="E14">
         <v>9</v>
       </c>
+      <c r="F14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1935,6 +2049,14 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ITA</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1956,6 +2078,14 @@
       <c r="E16">
         <v>4</v>
       </c>
+      <c r="F16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MAR</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1977,6 +2107,14 @@
       <c r="E17">
         <v>2</v>
       </c>
+      <c r="F17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>KOR</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1998,6 +2136,14 @@
       <c r="E18">
         <v>5</v>
       </c>
+      <c r="F18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NZL</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PHI</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2019,6 +2165,14 @@
       <c r="E19">
         <v>6</v>
       </c>
+      <c r="F19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NOR</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2040,6 +2194,14 @@
       <c r="E20">
         <v>8</v>
       </c>
+      <c r="F20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>IRE</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2061,6 +2223,14 @@
       <c r="E21">
         <v>1</v>
       </c>
+      <c r="F21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ZAM</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2082,6 +2252,14 @@
       <c r="E22">
         <v>3</v>
       </c>
+      <c r="F22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JPN</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRC</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2103,6 +2281,14 @@
       <c r="E23">
         <v>7</v>
       </c>
+      <c r="F23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AUS</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NGA</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2124,6 +2310,14 @@
       <c r="E24">
         <v>5</v>
       </c>
+      <c r="F24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2145,6 +2339,14 @@
       <c r="E25">
         <v>6</v>
       </c>
+      <c r="F25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>VIE</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2166,6 +2368,14 @@
       <c r="E26">
         <v>2</v>
       </c>
+      <c r="F26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>DEN</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2187,6 +2397,14 @@
       <c r="E27">
         <v>9</v>
       </c>
+      <c r="F27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CHI</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HAI</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2208,6 +2426,14 @@
       <c r="E28">
         <v>3</v>
       </c>
+      <c r="F28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SAF</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2229,6 +2455,14 @@
       <c r="E29">
         <v>7</v>
       </c>
+      <c r="F29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2250,6 +2484,14 @@
       <c r="E30">
         <v>8</v>
       </c>
+      <c r="F30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JAM</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2271,6 +2513,14 @@
       <c r="E31">
         <v>5</v>
       </c>
+      <c r="F31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SWE</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ITA</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2292,6 +2542,14 @@
       <c r="E32">
         <v>2</v>
       </c>
+      <c r="F32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2313,6 +2571,14 @@
       <c r="E33">
         <v>9</v>
       </c>
+      <c r="F33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>KOR</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MAR</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2334,6 +2600,14 @@
       <c r="E34">
         <v>3</v>
       </c>
+      <c r="F34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NZL</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2355,6 +2629,14 @@
       <c r="E35">
         <v>1</v>
       </c>
+      <c r="F35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NOR</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PHI</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2376,6 +2658,14 @@
       <c r="E36">
         <v>4</v>
       </c>
+      <c r="F36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUS</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2397,6 +2687,14 @@
       <c r="E37">
         <v>7</v>
       </c>
+      <c r="F37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>IRE</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NGA</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2418,6 +2716,14 @@
       <c r="E38">
         <v>5</v>
       </c>
+      <c r="F38" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JPN</v>
+      </c>
+      <c r="G38" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2439,6 +2745,14 @@
       <c r="E39">
         <v>6</v>
       </c>
+      <c r="F39" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CRC</v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ZAM</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2460,6 +2774,14 @@
       <c r="E40">
         <v>9</v>
       </c>
+      <c r="F40" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CHI</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2481,6 +2803,14 @@
       <c r="E41">
         <v>8</v>
       </c>
+      <c r="F41" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>HAI</v>
+      </c>
+      <c r="G41" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>DEN</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2502,6 +2832,14 @@
       <c r="E42">
         <v>1</v>
       </c>
+      <c r="F42" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2523,6 +2861,14 @@
       <c r="E43">
         <v>3</v>
       </c>
+      <c r="F43" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>VIE</v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2544,6 +2890,14 @@
       <c r="E44">
         <v>2</v>
       </c>
+      <c r="F44" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2565,6 +2919,14 @@
       <c r="E45">
         <v>4</v>
       </c>
+      <c r="F45" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JAM</v>
+      </c>
+      <c r="G45" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2586,6 +2948,14 @@
       <c r="E46">
         <v>6</v>
       </c>
+      <c r="F46" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+      <c r="G46" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SWE</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2607,6 +2977,14 @@
       <c r="E47">
         <v>5</v>
       </c>
+      <c r="F47" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SAF</v>
+      </c>
+      <c r="G47" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ITA</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2628,6 +3006,14 @@
       <c r="E48">
         <v>7</v>
       </c>
+      <c r="F48" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>KOR</v>
+      </c>
+      <c r="G48" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2648,6 +3034,14 @@
       </c>
       <c r="E49">
         <v>8</v>
+      </c>
+      <c r="F49" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MAR</v>
+      </c>
+      <c r="G49" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>COL</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>

--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9437C8-9929-3343-A87B-BA3BFBCB5F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F6C3F-13C2-9648-BD40-47098C560661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -756,10 +756,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -771,7 +768,10 @@
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -816,16 +816,16 @@
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
     <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="5">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="4">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1164,7 +1164,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:G65"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1699,7 @@
         <v>45127.416666666672</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3" t="str">
         <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>

--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD68ADC-C9F7-164C-8063-2535673FAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D90F1-5E81-4441-8E20-6EADA878F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="38400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
   <si>
     <t>key</t>
   </si>
@@ -666,6 +666,78 @@
   </si>
   <si>
     <t>جام جهانی زنان</t>
+  </si>
+  <si>
+    <t>competition-key</t>
+  </si>
+  <si>
+    <t>host-key</t>
+  </si>
+  <si>
+    <t>womens-world-cup</t>
+  </si>
+  <si>
+    <t>au-nz</t>
+  </si>
+  <si>
+    <t>venue-key.1</t>
+  </si>
+  <si>
+    <t>nz-auckland</t>
+  </si>
+  <si>
+    <t>venue-key.2</t>
+  </si>
+  <si>
+    <t>au-sydney_football</t>
+  </si>
+  <si>
+    <t>venue-key.3</t>
+  </si>
+  <si>
+    <t>nz-dunedin</t>
+  </si>
+  <si>
+    <t>venue-key.4</t>
+  </si>
+  <si>
+    <t>au-melbourne</t>
+  </si>
+  <si>
+    <t>venue-key.5</t>
+  </si>
+  <si>
+    <t>nz-wellington</t>
+  </si>
+  <si>
+    <t>venue-key.6</t>
+  </si>
+  <si>
+    <t>nz-hamilton</t>
+  </si>
+  <si>
+    <t>venue-key.7</t>
+  </si>
+  <si>
+    <t>au-brisbane</t>
+  </si>
+  <si>
+    <t>venue-key.8</t>
+  </si>
+  <si>
+    <t>au-perth</t>
+  </si>
+  <si>
+    <t>venue-key.9</t>
+  </si>
+  <si>
+    <t>au-adelaide</t>
+  </si>
+  <si>
+    <t>venue-key.10</t>
+  </si>
+  <si>
+    <t>au-sydney_australia</t>
   </si>
 </sst>
 </file>
@@ -747,8 +819,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I26" totalsRowShown="0">
+  <autoFilter ref="A1:I26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="en"/>
@@ -1115,13 +1187,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1168,358 +1240,454 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D90F1-5E81-4441-8E20-6EADA878F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561AF090-97A1-834A-80E5-202450F886EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="38400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="1" r:id="rId1"/>
     <sheet name="Matches" sheetId="2" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
     <sheet name="Colors" sheetId="4" r:id="rId4"/>
+    <sheet name="Properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="250">
   <si>
     <t>key</t>
   </si>
@@ -668,76 +669,124 @@
     <t>جام جهانی زنان</t>
   </si>
   <si>
-    <t>competition-key</t>
-  </si>
-  <si>
-    <t>host-key</t>
-  </si>
-  <si>
     <t>womens-world-cup</t>
   </si>
   <si>
     <t>au-nz</t>
   </si>
   <si>
-    <t>venue-key.1</t>
-  </si>
-  <si>
     <t>nz-auckland</t>
   </si>
   <si>
-    <t>venue-key.2</t>
-  </si>
-  <si>
     <t>au-sydney_football</t>
   </si>
   <si>
-    <t>venue-key.3</t>
-  </si>
-  <si>
     <t>nz-dunedin</t>
   </si>
   <si>
-    <t>venue-key.4</t>
-  </si>
-  <si>
     <t>au-melbourne</t>
   </si>
   <si>
-    <t>venue-key.5</t>
-  </si>
-  <si>
     <t>nz-wellington</t>
   </si>
   <si>
-    <t>venue-key.6</t>
-  </si>
-  <si>
     <t>nz-hamilton</t>
   </si>
   <si>
-    <t>venue-key.7</t>
-  </si>
-  <si>
     <t>au-brisbane</t>
   </si>
   <si>
-    <t>venue-key.8</t>
-  </si>
-  <si>
     <t>au-perth</t>
   </si>
   <si>
-    <t>venue-key.9</t>
-  </si>
-  <si>
     <t>au-adelaide</t>
   </si>
   <si>
-    <t>venue-key.10</t>
-  </si>
-  <si>
     <t>au-sydney_australia</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>color.a</t>
+  </si>
+  <si>
+    <t>color.b</t>
+  </si>
+  <si>
+    <t>color.c</t>
+  </si>
+  <si>
+    <t>color.d</t>
+  </si>
+  <si>
+    <t>color.e</t>
+  </si>
+  <si>
+    <t>color.f</t>
+  </si>
+  <si>
+    <t>color.g</t>
+  </si>
+  <si>
+    <t>color.h</t>
+  </si>
+  <si>
+    <t>venue.01</t>
+  </si>
+  <si>
+    <t>venue.02</t>
+  </si>
+  <si>
+    <t>venue.03</t>
+  </si>
+  <si>
+    <t>venue.04</t>
+  </si>
+  <si>
+    <t>venue.05</t>
+  </si>
+  <si>
+    <t>venue.06</t>
+  </si>
+  <si>
+    <t>venue.07</t>
+  </si>
+  <si>
+    <t>venue.08</t>
+  </si>
+  <si>
+    <t>venue.09</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>teal</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -783,7 +832,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -819,8 +871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="en"/>
@@ -844,17 +896,17 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="time"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="6">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="5">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,8 +935,23 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="de"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="nl"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="ja"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="fa"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="fa" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{74956FC7-C2AD-0A45-9E0C-88D5259048D3}" name="Properties" displayName="Properties" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{74956FC7-C2AD-0A45-9E0C-88D5259048D3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AF2ABC33-3B04-EF42-89D0-E398D581CCAA}" name="key"/>
+    <tableColumn id="2" xr3:uid="{7BD51FFF-9EF0-4A4E-86FB-D0BFF32189DE}" name="value"/>
+    <tableColumn id="3" xr3:uid="{272FF772-D688-4F42-83EF-12639D724A3C}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1187,13 +1254,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1240,454 +1307,358 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +3988,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J2" activeCellId="1" sqref="B2:B9 J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4173,4 +4144,230 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FDCBCD-58F6-DA41-87B1-E0E6E578A397}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561AF090-97A1-834A-80E5-202450F886EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF8E8D-17E9-DF41-B00B-174074EE576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tournament" sheetId="1" r:id="rId1"/>
+    <sheet name="Properties" sheetId="5" r:id="rId1"/>
     <sheet name="Matches" sheetId="2" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
-    <sheet name="Colors" sheetId="4" r:id="rId4"/>
-    <sheet name="Properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,194 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>AU/NZ</t>
-  </si>
-  <si>
-    <t>豪/新西蘭</t>
-  </si>
-  <si>
-    <t>استرالیا/نیوزیلند</t>
-  </si>
-  <si>
     <t>timezone</t>
   </si>
   <si>
     <t>Australia/Sydney</t>
   </si>
   <si>
-    <t>venue.1</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>オークランド</t>
-  </si>
-  <si>
-    <t>اوکلند</t>
-  </si>
-  <si>
-    <t>venue.2</t>
-  </si>
-  <si>
-    <t>Sydney Football Stadium</t>
-  </si>
-  <si>
-    <t>Estadio de fútbol de Sydney</t>
-  </si>
-  <si>
-    <t>Stade de football de Sydney</t>
-  </si>
-  <si>
-    <t>シドニーフットボールスタジアム</t>
-  </si>
-  <si>
-    <t>استادیوم فوتبال سیدنی</t>
-  </si>
-  <si>
-    <t>venue.3</t>
-  </si>
-  <si>
-    <t>Dunedin</t>
-  </si>
-  <si>
-    <t>ダニーデン</t>
-  </si>
-  <si>
-    <t>دوندین</t>
-  </si>
-  <si>
-    <t>venue.4</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>メルボルン</t>
-  </si>
-  <si>
-    <t>ملبورن</t>
-  </si>
-  <si>
-    <t>venue.5</t>
-  </si>
-  <si>
-    <t>Wellington</t>
-  </si>
-  <si>
-    <t>ウェリントン</t>
-  </si>
-  <si>
-    <t>ولینگتون</t>
-  </si>
-  <si>
-    <t>venue.6</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>ハミルトン</t>
-  </si>
-  <si>
-    <t>هامیلتون</t>
-  </si>
-  <si>
-    <t>venue.7</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>ブリスベン</t>
-  </si>
-  <si>
-    <t>بریزبن</t>
-  </si>
-  <si>
-    <t>venue.8</t>
-  </si>
-  <si>
-    <t>Perth</t>
-  </si>
-  <si>
-    <t>パース</t>
-  </si>
-  <si>
-    <t>پرت</t>
-  </si>
-  <si>
-    <t>venue.9</t>
-  </si>
-  <si>
-    <t>Adelaide</t>
-  </si>
-  <si>
-    <t>Adélaïde</t>
-  </si>
-  <si>
-    <t>アデレード</t>
-  </si>
-  <si>
-    <t>عیاشی</t>
-  </si>
-  <si>
     <t>venue.10</t>
   </si>
   <si>
-    <t>Stadium Australia</t>
-  </si>
-  <si>
-    <t>Estadio australia</t>
-  </si>
-  <si>
-    <t>Stadion Australien</t>
-  </si>
-  <si>
-    <t>Stadion Australië</t>
-  </si>
-  <si>
-    <t>スタジアムオーストラリア</t>
-  </si>
-  <si>
-    <t>استادیوم استرالیا</t>
-  </si>
-  <si>
     <t>match</t>
   </si>
   <si>
@@ -555,118 +379,28 @@
     <t>notes</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>#b0df90</t>
   </si>
   <si>
-    <t>#97cd73</t>
-  </si>
-  <si>
-    <t>pale green</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>#92d6df</t>
   </si>
   <si>
-    <t>pale cyan</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>#f79d8f</t>
   </si>
   <si>
-    <t>#e2694f</t>
-  </si>
-  <si>
-    <t>#eb9784</t>
-  </si>
-  <si>
-    <t>pale red</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>#efc9d8</t>
   </si>
   <si>
-    <t>pale pink</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>#eb84af</t>
   </si>
   <si>
-    <t>#f173a7</t>
-  </si>
-  <si>
-    <t>pale rose</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>#60b4c7</t>
   </si>
   <si>
-    <t>#418e9f</t>
-  </si>
-  <si>
-    <t>pale teal</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>#fab077</t>
   </si>
   <si>
-    <t>#faae53</t>
-  </si>
-  <si>
-    <t>pale orange</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>#f8f391</t>
-  </si>
-  <si>
-    <t>pale yellow</t>
-  </si>
-  <si>
-    <t>CDM Féminine</t>
-  </si>
-  <si>
-    <t>Women's WC</t>
-  </si>
-  <si>
-    <t>Mundial Femenino</t>
-  </si>
-  <si>
-    <t>Mondiale Femminile</t>
-  </si>
-  <si>
-    <t>Frauen-WM</t>
-  </si>
-  <si>
-    <t>WK Vrouwen</t>
-  </si>
-  <si>
-    <t>女子W杯</t>
-  </si>
-  <si>
-    <t>جام جهانی زنان</t>
   </si>
   <si>
     <t>womens-world-cup</t>
@@ -832,10 +566,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -871,18 +602,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="en"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="es"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="it"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="fr"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="de"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ja"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="fa"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{74956FC7-C2AD-0A45-9E0C-88D5259048D3}" name="Properties" displayName="Properties" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{74956FC7-C2AD-0A45-9E0C-88D5259048D3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AF2ABC33-3B04-EF42-89D0-E398D581CCAA}" name="key"/>
+    <tableColumn id="2" xr3:uid="{7BD51FFF-9EF0-4A4E-86FB-D0BFF32189DE}" name="value"/>
+    <tableColumn id="3" xr3:uid="{272FF772-D688-4F42-83EF-12639D724A3C}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,17 +624,17 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="time"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="5">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="4">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,40 +646,6 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="team"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="groups" displayName="groups" ref="A1:J9" totalsRowShown="0">
-  <autoFilter ref="A1:J9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="key"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="en"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="es"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="it"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="fr"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="de"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="ja"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="fa" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="notes"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{74956FC7-C2AD-0A45-9E0C-88D5259048D3}" name="Properties" displayName="Properties" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{74956FC7-C2AD-0A45-9E0C-88D5259048D3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="A1:A22"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AF2ABC33-3B04-EF42-89D0-E398D581CCAA}" name="key"/>
-    <tableColumn id="2" xr3:uid="{7BD51FFF-9EF0-4A4E-86FB-D0BFF32189DE}" name="value"/>
-    <tableColumn id="3" xr3:uid="{272FF772-D688-4F42-83EF-12639D724A3C}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,417 +947,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FDCBCD-58F6-DA41-87B1-E0E6E578A397}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
+      <c r="B22" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1689,37 +1191,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1727,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>45127.291666666657</v>
@@ -1758,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>45127.416666666657</v>
@@ -1789,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>45128.208333333343</v>
@@ -1820,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>45128.104166666657</v>
@@ -1851,10 +1353,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>45128.3125</v>
@@ -1882,10 +1384,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>45129.291666666657</v>
@@ -1913,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>45129.395833333343</v>
@@ -1944,10 +1446,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>45129.5</v>
@@ -1975,10 +1477,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>45129.041666666657</v>
@@ -2006,10 +1508,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>45130.3125</v>
@@ -2037,10 +1539,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>45130.416666666657</v>
@@ -2068,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>45130.208333333343</v>
@@ -2099,10 +1601,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>45131.458333333343</v>
@@ -2130,10 +1632,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>45131.25</v>
@@ -2161,10 +1663,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>45131.354166666657</v>
@@ -2192,10 +1694,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1">
         <v>45132.083333333343</v>
@@ -2223,10 +1725,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
         <v>45132.229166666657</v>
@@ -2254,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>45132.333333333343</v>
@@ -2285,10 +1787,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>45133.5</v>
@@ -2316,10 +1818,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
         <v>45133.3125</v>
@@ -2347,10 +1849,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1">
         <v>45133.208333333343</v>
@@ -2378,10 +1880,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>45134.416666666657</v>
@@ -2409,10 +1911,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>45134.041666666657</v>
@@ -2440,10 +1942,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
         <v>45134.3125</v>
@@ -2471,10 +1973,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>45135.354166666657</v>
@@ -2502,10 +2004,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1">
         <v>45135.458333333343</v>
@@ -2533,10 +2035,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>45135</v>
@@ -2564,10 +2066,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>45136.416666666657</v>
@@ -2595,10 +2097,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1">
         <v>45136.520833333343</v>
@@ -2626,10 +2128,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1">
         <v>45136.3125</v>
@@ -2657,10 +2159,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1">
         <v>45137.395833333343</v>
@@ -2688,10 +2190,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1">
         <v>45137.1875</v>
@@ -2719,10 +2221,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
         <v>45137.291666666657</v>
@@ -2750,10 +2252,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1">
         <v>45137.291666666657</v>
@@ -2781,10 +2283,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
         <v>45138.416666666657</v>
@@ -2812,10 +2314,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1">
         <v>45138.416666666657</v>
@@ -2843,10 +2345,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1">
         <v>45138.291666666657</v>
@@ -2874,10 +2376,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1">
         <v>45138.291666666657</v>
@@ -2905,10 +2407,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1">
         <v>45139.458333333343</v>
@@ -2936,10 +2438,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1">
         <v>45139.458333333343</v>
@@ -2967,10 +2469,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1">
         <v>45139.291666666657</v>
@@ -2998,10 +2500,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1">
         <v>45139.291666666657</v>
@@ -3029,10 +2531,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D44" s="1">
         <v>45140.416666666657</v>
@@ -3060,10 +2562,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>45140.416666666657</v>
@@ -3091,10 +2593,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1">
         <v>45140.291666666657</v>
@@ -3122,10 +2624,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>45140.291666666657</v>
@@ -3153,10 +2655,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1">
         <v>45141.416666666657</v>
@@ -3184,10 +2686,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
         <v>45141.416666666657</v>
@@ -3215,10 +2717,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1">
         <v>45143.208333333343</v>
@@ -3227,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3244,10 +2746,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1">
         <v>45143.333333333343</v>
@@ -3256,10 +2758,10 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -3273,10 +2775,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1">
         <v>45144.083333333343</v>
@@ -3285,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -3302,10 +2804,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1">
         <v>45144.375</v>
@@ -3314,10 +2816,10 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3337,10 +2839,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1">
         <v>45145.4375</v>
@@ -3349,10 +2851,10 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3372,10 +2874,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1">
         <v>45145.3125</v>
@@ -3384,10 +2886,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -3401,10 +2903,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1">
         <v>45146.458333333343</v>
@@ -3413,10 +2915,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3430,10 +2932,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1">
         <v>45146.333333333343</v>
@@ -3442,10 +2944,10 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -3459,10 +2961,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1">
         <v>45149.041666666657</v>
@@ -3471,10 +2973,10 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -3488,10 +2990,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1">
         <v>45149.3125</v>
@@ -3500,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -3517,10 +3019,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1">
         <v>45150.291666666657</v>
@@ -3529,10 +3031,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3552,10 +3054,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1">
         <v>45150.4375</v>
@@ -3564,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3581,10 +3083,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1">
         <v>45153.333333333343</v>
@@ -3593,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3610,10 +3112,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1">
         <v>45154.416666666657</v>
@@ -3622,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3639,10 +3141,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1">
         <v>45157.333333333343</v>
@@ -3651,10 +3153,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -3668,10 +3170,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D65" s="1">
         <v>45158.416666666657</v>
@@ -3680,10 +3182,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3713,655 +3215,266 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" activeCellId="1" sqref="B2:B9 J2:J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FDCBCD-58F6-DA41-87B1-E0E6E578A397}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF8E8D-17E9-DF41-B00B-174074EE576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFB187-A67A-9C4D-A7CD-ED2BD7554E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="5" r:id="rId1"/>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FDCBCD-58F6-DA41-87B1-E0E6E578A397}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2851,22 +2851,16 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>0</v>
-      </c>
-      <c r="J54">
-        <v>4</v>
-      </c>
-      <c r="K54">
-        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2886,16 +2880,22 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
         <v>2</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2915,13 +2915,13 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2944,13 +2944,13 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>

--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFB187-A67A-9C4D-A7CD-ED2BD7554E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAE060-E867-DA4C-9B29-5356E2301FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t>key</t>
   </si>
@@ -521,6 +521,15 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>away-known</t>
+  </si>
+  <si>
+    <t>home-known</t>
+  </si>
+  <si>
+    <t>after-extra-time</t>
   </si>
 </sst>
 </file>
@@ -617,22 +626,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:K65" totalsRowShown="0">
-  <autoFilter ref="A1:K65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:N65" totalsRowShown="0">
+  <autoFilter ref="A1:N65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="match"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="time"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="5">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-known" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="4">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-known" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="13" xr3:uid="{44094332-15FF-9741-AD80-A324545949F5}" name="home-team"/>
+    <tableColumn id="12" xr3:uid="{0336A892-7A8D-1145-B03D-ED1FA38DE8EB}" name="away-team"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{3E203E5C-213F-B841-BA31-54729B5816B0}" name="after-extra-time"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
@@ -1174,22 +1186,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:K65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1206,25 +1219,34 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1241,21 +1263,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NZL</v>
       </c>
       <c r="G2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NOR</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1272,21 +1288,15 @@
         <v>10</v>
       </c>
       <c r="F3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AUS</v>
       </c>
       <c r="G3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>IRE</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1303,21 +1313,15 @@
         <v>3</v>
       </c>
       <c r="F4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PHI</v>
       </c>
       <c r="G4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1334,21 +1338,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NGA</v>
       </c>
       <c r="G5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1365,21 +1363,15 @@
         <v>5</v>
       </c>
       <c r="F6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
       <c r="G6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CRC</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1396,21 +1388,15 @@
         <v>6</v>
       </c>
       <c r="F7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ZAM</v>
       </c>
       <c r="G7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JPN</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1427,21 +1413,15 @@
         <v>7</v>
       </c>
       <c r="F8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
       <c r="G8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>HAI</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1458,21 +1438,15 @@
         <v>8</v>
       </c>
       <c r="F9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>DEN</v>
       </c>
       <c r="G9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CHI</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1489,21 +1463,15 @@
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
       <c r="G10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>VIE</v>
       </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1520,21 +1488,15 @@
         <v>3</v>
       </c>
       <c r="F11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
       <c r="G11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1551,21 +1513,15 @@
         <v>2</v>
       </c>
       <c r="F12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
       <c r="G12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JAM</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1582,21 +1538,15 @@
         <v>5</v>
       </c>
       <c r="F13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SWE</v>
       </c>
       <c r="G13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SAF</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1613,21 +1563,15 @@
         <v>9</v>
       </c>
       <c r="F14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
       <c r="G14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1644,21 +1588,15 @@
         <v>1</v>
       </c>
       <c r="F15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ITA</v>
       </c>
       <c r="G15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1675,21 +1613,15 @@
         <v>4</v>
       </c>
       <c r="F16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
       <c r="G16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MAR</v>
       </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1706,21 +1638,15 @@
         <v>2</v>
       </c>
       <c r="F17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
       <c r="G17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>KOR</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1737,21 +1663,15 @@
         <v>5</v>
       </c>
       <c r="F18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NZL</v>
       </c>
       <c r="G18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PHI</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1768,21 +1688,15 @@
         <v>6</v>
       </c>
       <c r="F19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
       <c r="G19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NOR</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1799,21 +1713,15 @@
         <v>8</v>
       </c>
       <c r="F20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
       <c r="G20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>IRE</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1830,21 +1738,15 @@
         <v>1</v>
       </c>
       <c r="F21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
       <c r="G21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ZAM</v>
       </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1861,21 +1763,15 @@
         <v>3</v>
       </c>
       <c r="F22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JPN</v>
       </c>
       <c r="G22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CRC</v>
       </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1892,21 +1788,15 @@
         <v>7</v>
       </c>
       <c r="F23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AUS</v>
       </c>
       <c r="G23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NGA</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1923,21 +1813,15 @@
         <v>5</v>
       </c>
       <c r="F24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
       <c r="G24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1954,21 +1838,15 @@
         <v>6</v>
       </c>
       <c r="F25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
       <c r="G25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>VIE</v>
       </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1985,21 +1863,15 @@
         <v>2</v>
       </c>
       <c r="F26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
       <c r="G26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>DEN</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2016,21 +1888,15 @@
         <v>9</v>
       </c>
       <c r="F27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CHI</v>
       </c>
       <c r="G27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>HAI</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2047,21 +1913,15 @@
         <v>3</v>
       </c>
       <c r="F28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
       <c r="G28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SAF</v>
       </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2078,21 +1938,15 @@
         <v>7</v>
       </c>
       <c r="F29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
       <c r="G29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2109,21 +1963,15 @@
         <v>8</v>
       </c>
       <c r="F30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
       <c r="G30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JAM</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2140,21 +1988,15 @@
         <v>5</v>
       </c>
       <c r="F31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SWE</v>
       </c>
       <c r="G31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ITA</v>
       </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2171,21 +2013,15 @@
         <v>2</v>
       </c>
       <c r="F32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
       <c r="G32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2202,21 +2038,15 @@
         <v>9</v>
       </c>
       <c r="F33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>KOR</v>
       </c>
       <c r="G33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MAR</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2233,21 +2063,15 @@
         <v>3</v>
       </c>
       <c r="F34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
       <c r="G34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NZL</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2264,21 +2088,15 @@
         <v>1</v>
       </c>
       <c r="F35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NOR</v>
       </c>
       <c r="G35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PHI</v>
       </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2295,21 +2113,15 @@
         <v>4</v>
       </c>
       <c r="F36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
       <c r="G36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AUS</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2326,21 +2138,15 @@
         <v>7</v>
       </c>
       <c r="F37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>IRE</v>
       </c>
       <c r="G37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NGA</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2357,21 +2163,15 @@
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JPN</v>
       </c>
       <c r="G38" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2388,21 +2188,15 @@
         <v>6</v>
       </c>
       <c r="F39" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CRC</v>
       </c>
       <c r="G39" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ZAM</v>
       </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2419,21 +2213,15 @@
         <v>9</v>
       </c>
       <c r="F40" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CHI</v>
       </c>
       <c r="G40" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2450,21 +2238,15 @@
         <v>8</v>
       </c>
       <c r="F41" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>HAI</v>
       </c>
       <c r="G41" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>DEN</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2481,21 +2263,15 @@
         <v>1</v>
       </c>
       <c r="F42" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
       <c r="G42" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2512,21 +2288,15 @@
         <v>3</v>
       </c>
       <c r="F43" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>VIE</v>
       </c>
       <c r="G43" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2543,21 +2313,15 @@
         <v>2</v>
       </c>
       <c r="F44" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
       <c r="G44" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2574,21 +2338,15 @@
         <v>4</v>
       </c>
       <c r="F45" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JAM</v>
       </c>
       <c r="G45" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2605,21 +2363,15 @@
         <v>6</v>
       </c>
       <c r="F46" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
       <c r="G46" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SWE</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2636,21 +2388,15 @@
         <v>5</v>
       </c>
       <c r="F47" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SAF</v>
       </c>
       <c r="G47" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ITA</v>
       </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2667,21 +2413,15 @@
         <v>7</v>
       </c>
       <c r="F48" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>KOR</v>
       </c>
       <c r="G48" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2698,21 +2438,15 @@
         <v>8</v>
       </c>
       <c r="F49" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MAR</v>
       </c>
       <c r="G49" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2728,20 +2462,16 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2757,20 +2487,16 @@
       <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2786,20 +2512,16 @@
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F52" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2815,26 +2537,16 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F53" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2850,20 +2562,16 @@
       <c r="E54">
         <v>10</v>
       </c>
-      <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F54" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2879,26 +2587,16 @@
       <c r="E55">
         <v>7</v>
       </c>
-      <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>4</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F55" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2914,20 +2612,16 @@
       <c r="E56">
         <v>9</v>
       </c>
-      <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56">
-        <v>4</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F56" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2943,20 +2637,16 @@
       <c r="E57">
         <v>4</v>
       </c>
-      <c r="F57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F57" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2972,20 +2662,16 @@
       <c r="E58">
         <v>5</v>
       </c>
-      <c r="F58" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F58" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3001,20 +2687,16 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" t="s">
-        <v>61</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F59" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3030,26 +2712,16 @@
       <c r="E60">
         <v>7</v>
       </c>
-      <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>7</v>
-      </c>
-      <c r="K60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F60" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3065,20 +2737,16 @@
       <c r="E61">
         <v>10</v>
       </c>
-      <c r="F61" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F61" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3094,20 +2762,16 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F62" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3123,20 +2787,16 @@
       <c r="E63">
         <v>10</v>
       </c>
-      <c r="F63" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F63" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3152,20 +2812,16 @@
       <c r="E64">
         <v>7</v>
       </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F64" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3181,17 +2837,13 @@
       <c r="E65">
         <v>10</v>
       </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+      <c r="F65" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2023-womens-world-cup.xlsx
+++ b/src/stp/database/2023-womens-world-cup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8FCB4-D108-3940-852C-7CECA7E84A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255C409-6862-FF4C-8FF7-0D8EC63EAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3016,10 +3016,10 @@
         <v>129</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
